--- a/data/income_statement/2digits/size/25_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/25_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>25-Manufacture of fabricated metal products, except machinery and equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>25-Manufacture of fabricated metal products, except machinery and equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1148 +841,1298 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>6498748.84091</v>
+        <v>6801200.92894</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>7753961.68135</v>
+        <v>8114813.94423</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>10473058.55388</v>
+        <v>10967004.62112</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>11876469.15365</v>
+        <v>12350276.59855</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>14780161.44219</v>
+        <v>15536150.01268</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>16552605.94887</v>
+        <v>17445247.19659</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>18032659.84919</v>
+        <v>19203740.24149</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>19887942.76709</v>
+        <v>20860630.90737</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>25133270.34733</v>
+        <v>25859463.38329</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>37053609.79781</v>
+        <v>37756904.40254</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>40040782.15087</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>41881095.8239</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>50742101.114</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>4991927.15497</v>
+        <v>5167456.937860001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>6195043.344649999</v>
+        <v>6410630.57857</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>8583660.16423</v>
+        <v>8932130.639450001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>9639455.796189999</v>
+        <v>9905217.384169998</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>11787673.84381</v>
+        <v>12261736.99022</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>13262008.632</v>
+        <v>13751396.74987</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>14642254.37515</v>
+        <v>15398773.30116</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>16074503.25241</v>
+        <v>16548762.31582</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>20930958.08659</v>
+        <v>21357217.82689</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>28194579.21738</v>
+        <v>28707470.98811</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>29670867.31474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>30487626.62859</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>38462793.349</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1438456.50734</v>
+        <v>1561390.13325</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1476184.66386</v>
+        <v>1616534.82884</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1780519.77666</v>
+        <v>1918254.8536</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2105454.35967</v>
+        <v>2302156.23472</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2845948.6543</v>
+        <v>3122037.66765</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>3118911.50695</v>
+        <v>3493159.16297</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>3194722.34789</v>
+        <v>3589194.83881</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>3562354.20985</v>
+        <v>4051368.41687</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>3865095.35285</v>
+        <v>4171899.40664</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>8303953.701760001</v>
+        <v>8466115.085209999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>9783845.58639</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>10792720.4452</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>11600372.235</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>68365.1786</v>
+        <v>72353.85783000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>82733.67284</v>
+        <v>87648.53681999999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>108878.61299</v>
+        <v>116619.12807</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>131558.99779</v>
+        <v>142902.97966</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>146538.94408</v>
+        <v>152375.35481</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>171685.80992</v>
+        <v>200691.28375</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>195683.12615</v>
+        <v>215772.10152</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>251085.30483</v>
+        <v>260500.17468</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>337216.90789</v>
+        <v>330346.14976</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>555076.87867</v>
+        <v>583318.3292200001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>586069.24974</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>600748.75011</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>678935.53</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>121380.482</v>
+        <v>139831.18989</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>138636.28146</v>
+        <v>168666.93041</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>127383.97576</v>
+        <v>175448.27808</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>160438.63206</v>
+        <v>175693.1717</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>208601.10367</v>
+        <v>221283.83039</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>233962.06433</v>
+        <v>315100.83391</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>250985.54254</v>
+        <v>306235.7275399999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>290258.84815</v>
+        <v>307462.44519</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>351029.86544</v>
+        <v>384802.34706</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>774893.94967</v>
+        <v>895936.9048199999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>769636.7221100001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>891775.8786800001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1054068.218</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>56288.88867</v>
+        <v>57977.18604</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>55486.00985000001</v>
+        <v>55525.39152</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>67817.42749000002</v>
+        <v>71603.37463999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>88894.40861</v>
+        <v>92939.24690000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>105867.45498</v>
+        <v>110173.22772</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>136963.18711</v>
+        <v>143790.41656</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>149231.77428</v>
+        <v>158449.46276</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>188461.31037</v>
+        <v>203487.04179</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>232096.61199</v>
+        <v>253218.76826</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>499740.43317</v>
+        <v>513953.14163</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>414665.73737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>442203.91174</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>567662.4350000001</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>54505.03139</v>
+        <v>70666.32781</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>72357.64934</v>
+        <v>101803.27098</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>46705.79059</v>
+        <v>91474.85885999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>58183.67765000001</v>
+        <v>68509.98709000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>80691.99606999999</v>
+        <v>88716.57359</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>73756.84990999999</v>
+        <v>146729.18422</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>75908.15876000001</v>
+        <v>121753.44044</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>78823.30072</v>
+        <v>80172.78625</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>88045.36540000001</v>
+        <v>97005.03253</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>184395.89398</v>
+        <v>291168.86969</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>287058.38773</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>380616.52022</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>402662.533</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>10586.56194</v>
+        <v>11187.67604</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>10792.62227</v>
+        <v>11338.26791</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>12860.75768</v>
+        <v>12370.04458</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>13360.5458</v>
+        <v>14243.93771</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>22041.65262</v>
+        <v>22394.02908</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>23242.02731</v>
+        <v>24581.23313</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>25845.6095</v>
+        <v>26032.82434</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>22974.23706</v>
+        <v>23802.61715</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>30887.88805</v>
+        <v>34578.54627000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>90757.62252</v>
+        <v>90814.89350000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>67912.59701000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>68955.44671999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>83743.25</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>6377368.35891</v>
+        <v>6661369.739049999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>7615325.39989</v>
+        <v>7946147.01382</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>10345674.57812</v>
+        <v>10791556.34304</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>11716030.52159</v>
+        <v>12174583.42685</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>14571560.33852</v>
+        <v>15314866.18229</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>16318643.88454</v>
+        <v>17130146.36268</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>17781674.30665</v>
+        <v>18897504.51395</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>19597683.91894</v>
+        <v>20553168.46218</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>24782240.48189</v>
+        <v>25474661.03623</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>36278715.84814</v>
+        <v>36860967.49772</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>39271145.42875999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>40989319.94522</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>49688032.896</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>5289042.36087</v>
+        <v>5523829.21931</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>6414137.75364</v>
+        <v>6737531.52518</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>8856206.418380002</v>
+        <v>9228757.133630002</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>9948441.43809</v>
+        <v>10333899.27003</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>12320812.52159</v>
+        <v>12927651.57479</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>13779866.31554</v>
+        <v>14396206.41512</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>14884910.55868</v>
+        <v>15787829.9369</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>16593638.51809</v>
+        <v>17342229.89147</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>21048527.48645</v>
+        <v>21572836.55742</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>29992094.39425</v>
+        <v>30348945.77172</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>32473996.17128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>33836012.28347</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>40868047.665</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>4049454.48842</v>
+        <v>4181979.60236</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>4956317.362110001</v>
+        <v>5142580.31134</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>6839517.31796</v>
+        <v>7058676.72509</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>7833358.937040001</v>
+        <v>8057864.35454</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>9455159.38266</v>
+        <v>9734410.315549999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>10478911.986</v>
+        <v>10941010.67011</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>11447529.7428</v>
+        <v>12221755.61154</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>11937986.87997</v>
+        <v>12574356.84782</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>15715392.63578</v>
+        <v>16059933.90418</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>23973320.44615</v>
+        <v>24322273.42855</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>26128630.27409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>27221658.9888</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>31062316.711</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>612218.4201500001</v>
+        <v>597049.8945599999</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>721991.70669</v>
+        <v>750570.6496</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1163120.7481</v>
+        <v>1235223.87099</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1281445.16398</v>
+        <v>1323275.29139</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1814227.25328</v>
+        <v>1907371.13481</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1833385.79796</v>
+        <v>1928827.68339</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2166610.75359</v>
+        <v>2175103.05374</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2557951.79361</v>
+        <v>2524146.09674</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>3630120.28755</v>
+        <v>3599698.37854</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3585253.50393</v>
+        <v>3567934.72756</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3665904.32485</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3728052.1435</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>6262972.435</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>593613.6165199999</v>
+        <v>703957.8006399999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>675612.09996</v>
+        <v>776301.1468600001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>812991.5146500001</v>
+        <v>886779.6791299999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>805057.54946</v>
+        <v>915489.5999699999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1015314.57167</v>
+        <v>1239406.13951</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1410801.31758</v>
+        <v>1459626.16137</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1207447.66251</v>
+        <v>1325492.42744</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2025731.68278</v>
+        <v>2178471.62384</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1617797.64603</v>
+        <v>1837765.70037</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2298116.33216</v>
+        <v>2304203.04122</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2483053.61821</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2675568.23251</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3363439.267</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>33755.83578</v>
+        <v>40841.92175</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>60216.58487999999</v>
+        <v>68079.41738</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>40576.83767</v>
+        <v>48076.85842</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>28579.78761</v>
+        <v>37270.02413000001</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>36111.31398</v>
+        <v>46463.98492</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>56767.214</v>
+        <v>66741.90025000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>63322.39977999999</v>
+        <v>65478.84418</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>71968.16173000001</v>
+        <v>65255.32307000001</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>85216.91709</v>
+        <v>75438.57433000002</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>135404.11201</v>
+        <v>154534.57439</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>196407.95413</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>210732.91866</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>179319.252</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1088325.99804</v>
+        <v>1137540.51974</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1201187.64625</v>
+        <v>1208615.48864</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1489468.15974</v>
+        <v>1562799.20941</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1767589.0835</v>
+        <v>1840684.15682</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2250747.81693</v>
+        <v>2387214.6075</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2538777.569</v>
+        <v>2733939.94756</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2896763.74797</v>
+        <v>3109674.57705</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3004045.40085</v>
+        <v>3210938.57071</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>3733712.99544</v>
+        <v>3901824.47881</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>6286621.45389</v>
+        <v>6512021.726</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>6797149.257480001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>7153307.66175</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>8819985.231000001</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>623100.55195</v>
+        <v>671631.67862</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>700980.02494</v>
+        <v>749905.8411500001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>831755.9333100001</v>
+        <v>892530.4479299999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1026306.47972</v>
+        <v>1061735.16783</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1255087.93757</v>
+        <v>1322823.93026</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1367793.63132</v>
+        <v>1479851.62762</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1526335.74334</v>
+        <v>1637759.97498</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1644767.67739</v>
+        <v>1735156.42135</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1951174.94049</v>
+        <v>1993462.72799</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2865662.85869</v>
+        <v>2976119.36463</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3359132.58147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3548841.93776</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3716127.448</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>9448.5455</v>
+        <v>14295.63809</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>7317.06074</v>
+        <v>8591.28414</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>10131.62226</v>
+        <v>11278.19542</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>11092.12912</v>
+        <v>11860.14077</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>18942.0994</v>
+        <v>22972.33111</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>15865.57839</v>
+        <v>21868.40744</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>13617.12475</v>
+        <v>15272.36687</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>9031.13867</v>
+        <v>9485.29225</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>15193.68416</v>
+        <v>14216.52076</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>58183.49866</v>
+        <v>64312.14345</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>70439.73493000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>73895.14469</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>85750.37300000001</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>191066.01731</v>
+        <v>215204.41553</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>212093.18625</v>
+        <v>229485.02897</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>247747.46039</v>
+        <v>276135.36148</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>326167.367</v>
+        <v>351576.19009</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>408447.5571499999</v>
+        <v>445812.65815</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>442602.8693500001</v>
+        <v>496077.17048</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>495866.27582</v>
+        <v>553698.0787599999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>498372.94223</v>
+        <v>552338.85107</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>589403.1822799999</v>
+        <v>631051.43276</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1067234.38702</v>
+        <v>1125274.854</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1212353.10433</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1321275.66869</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1375184.975</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>422585.98914</v>
+        <v>442131.625</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>481569.7779500001</v>
+        <v>511829.5280399999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>573876.85066</v>
+        <v>605116.8910299999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>689046.9836</v>
+        <v>698298.8369700001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>827698.28102</v>
+        <v>854038.941</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>909325.18358</v>
+        <v>961906.0497000001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1016852.34277</v>
+        <v>1068789.52935</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1137363.59649</v>
+        <v>1173332.27803</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1346578.07405</v>
+        <v>1348194.77447</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1740244.97301</v>
+        <v>1786532.36718</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2076339.74221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2153671.12438</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2255192.1</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>465225.44609</v>
+        <v>465908.84112</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>500207.62131</v>
+        <v>458709.64749</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>657712.2264299999</v>
+        <v>670268.76148</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>741282.60378</v>
+        <v>778948.98899</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>995659.87936</v>
+        <v>1064390.67724</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1170983.93768</v>
+        <v>1254088.31994</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1370428.00463</v>
+        <v>1471914.60207</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1359277.72346</v>
+        <v>1475782.14936</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1782538.05495</v>
+        <v>1908361.75082</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3420958.5952</v>
+        <v>3535902.36137</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>3438016.67601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3604465.72399</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>5103857.783</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>212572.94536</v>
+        <v>279831.37005</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>165724.61889</v>
+        <v>246675.75854</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>215400.89237</v>
+        <v>249117.43033</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>201279.94603</v>
+        <v>240675.30164</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>348177.5582199999</v>
+        <v>440754.74971</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>349175.67594</v>
+        <v>411498.11726</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>529844.80453</v>
+        <v>686086.3518600002</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>463877.08586</v>
+        <v>649677.6268199999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>554595.01213</v>
+        <v>691035.62229</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2980310.29363</v>
+        <v>3655455.49497</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1710692.65908</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2194411.24064</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2967787.943</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>3450.81102</v>
+        <v>3278.68781</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>7379.77621</v>
+        <v>2020.99407</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>3954.66135</v>
+        <v>3618.29447</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>11111.39753</v>
+        <v>1271.73284</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1849.40571</v>
+        <v>15377.85815</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>3033.81322</v>
+        <v>744.6126700000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2491.07442</v>
+        <v>2099.8114</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>3307.47465</v>
+        <v>36821.76157</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1741.131</v>
+        <v>4949.774010000001</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2419.92267</v>
+        <v>13468.83974</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1999.47241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>43527.09619</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>4786.341</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>2002.57647</v>
+        <v>1947.15077</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>100.10952</v>
+        <v>151.1964</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>119.87433</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1.0825</v>
+        <v>17016.1931</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>1032.27895</v>
+        <v>521.84321</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>1439.64717</v>
+        <v>1214.73275</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1228.35775</v>
+        <v>5885.23284</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>19.83564</v>
+        <v>1220.55483</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>1379.97437</v>
+        <v>3434.71875</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>7124.82242</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>11625.55848</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>26883.37748</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>9415.6</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>18656.50376</v>
+        <v>22178.65398</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>16318.43233</v>
+        <v>16306.84371</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>14759.76776</v>
+        <v>17634.59566</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>21070.01689</v>
+        <v>24060.36344</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>29410.39894</v>
+        <v>30435.16237</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>37057.44639</v>
+        <v>38250.18812000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>39766.55143</v>
+        <v>44151.06501</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>40157.87534</v>
+        <v>46752.19908</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>52211.73845</v>
+        <v>54511.26831</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>121351.10168</v>
+        <v>158881.6949</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>163420.47889</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>205015.76096</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>168598.038</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1432.72903</v>
+        <v>1417.77454</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>471.37225</v>
+        <v>486.96294</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1621.03698</v>
+        <v>1520.44997</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>526.9209500000001</v>
+        <v>584.10123</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1660.6861</v>
+        <v>1797.84055</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>3066.32861</v>
+        <v>530.8927</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>3092.31648</v>
+        <v>439.081</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>303.25148</v>
+        <v>670.03594</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>719.72867</v>
+        <v>748.79958</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>7764.80967</v>
+        <v>7010.55145</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>31353.75682</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>31355.26081</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1551.842</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>5177.81041</v>
+        <v>5428.69271</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>2944.92608</v>
+        <v>3773.506820000001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2894.8032</v>
+        <v>3245.36449</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>5154.818460000001</v>
+        <v>4982.27731</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>6852.18486</v>
+        <v>9152.97525</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>3830.20165</v>
+        <v>4788.72012</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>7233.93138</v>
+        <v>6497.02396</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>5350.612990000001</v>
+        <v>3830.21352</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>8555.567080000001</v>
+        <v>7235.428550000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>12421.47053</v>
+        <v>12789.23961</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>24781.42418</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>27486.056</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>16566.506</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1698.84196</v>
+        <v>1628.23875</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1439.99889</v>
+        <v>978.7382000000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1221.54455</v>
+        <v>1245.33806</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>8970.85203</v>
+        <v>701.9608899999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>4636.49549</v>
+        <v>1586.34524</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>5384.1633</v>
+        <v>4546.67746</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2525.89154</v>
+        <v>4011.60258</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2836.38456</v>
+        <v>2826.55927</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>2372.01446</v>
+        <v>19638.29227</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>4035.88576</v>
+        <v>6311.46126</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>10794.16835</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>11064.76492</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>27372.154</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>146759.9813</v>
+        <v>176871.57442</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>109790.56809</v>
+        <v>183284.92617</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>139898.68757</v>
+        <v>178463.31454</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>110657.58293</v>
+        <v>139027.30207</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>245165.05066</v>
+        <v>298348.51789</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>236660.99495</v>
+        <v>306382.53126</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>410851.77087</v>
+        <v>555658.76578</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>323465.78284</v>
+        <v>477710.61273</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>388855.73943</v>
+        <v>493807.72503</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2655535.69445</v>
+        <v>3273120.46359</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1254135.26939</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1632080.63203</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2521164.983</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>269.19803</v>
+        <v>1775.16241</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>2.03941</v>
+        <v>2.24602</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>163.28327</v>
+        <v>214.08038</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>2009.98126</v>
+        <v>1075.73568</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>430.98964</v>
+        <v>1242.56032</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>1118.63088</v>
+        <v>1571.66622</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>2403.99493</v>
+        <v>2737.72741</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>2000.10692</v>
+        <v>2342.25528</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>2319.09184</v>
+        <v>2324.55903</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>14317.81189</v>
+        <v>19010.82326</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>7679.189189999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>9034.261189999999</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>13492.093</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>179.00116</v>
+        <v>176.90116</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>0</v>
@@ -2093,13 +2144,13 @@
         <v>56.41875</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>206.67819</v>
+        <v>208.89333</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>0</v>
+        <v>14.75128</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>0.02073</v>
+        <v>181.83027</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>0</v>
@@ -2113,308 +2164,348 @@
       <c r="M34" s="48" t="n">
         <v>350.77681</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>32945.49222</v>
+        <v>65128.5335</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>27277.39611</v>
+        <v>39670.34421</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>50767.19054</v>
+        <v>43056.07561</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>41720.87473</v>
+        <v>51899.21633000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>56933.38968000001</v>
+        <v>82082.75339999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>57584.44977</v>
+        <v>53453.34467999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>60250.895</v>
+        <v>64424.21160999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>86435.76144</v>
+        <v>77503.43459999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>96440.02683</v>
+        <v>104385.05676</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>155338.77456</v>
+        <v>157737.59874</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>204552.56456</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>207613.25425</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>204840.386</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>190982.91027</v>
+        <v>246276.85138</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>141442.83607</v>
+        <v>218582.19477</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>223290.45807</v>
+        <v>269386.51198</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>152238.79167</v>
+        <v>175817.06666</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>369861.64083</v>
+        <v>458378.30403</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>313542.95306</v>
+        <v>394351.76676</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>506831.62611</v>
+        <v>695809.93264</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>470500.4385</v>
+        <v>640877.57435</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>534534.9171900001</v>
+        <v>671019.8544099999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3235637.06409</v>
+        <v>3864118.40903</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1460216.88584</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1840777.65263</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2458198.912</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2625.13726</v>
+        <v>2615.52479</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>3831.39996</v>
+        <v>4020.621630000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>3436.01352</v>
+        <v>3502.34231</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>3883.76585</v>
+        <v>4569.61098</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>6175.42457</v>
+        <v>6782.59827</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>9048.696739999999</v>
+        <v>9556.075629999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>5040.44121</v>
+        <v>5331.25249</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>4921.70856</v>
+        <v>5022.584620000001</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>7079.14774</v>
+        <v>6962.38909</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>14432.86382</v>
+        <v>14158.33535</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>16581.73583</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>19568.22937</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>26595.218</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>31249.67925</v>
+        <v>38041.9731</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>14316.70259</v>
+        <v>17298.74263</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>21023.43436</v>
+        <v>21521.92752</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>31837.90026</v>
+        <v>33324.01425</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>31869.32668</v>
+        <v>33919.69915</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>39488.40838</v>
+        <v>40381.76312999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>34344.16576</v>
+        <v>43101.35002</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>66563.24188</v>
+        <v>73170.67740999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>45084.5908</v>
+        <v>43207.40830999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>96709.79071</v>
+        <v>103541.91342</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>95803.76284000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>105130.23416</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>51709.534</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>70.05069</v>
+        <v>40.64081</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>687.1952600000001</v>
+        <v>1306.58476</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1376.63379</v>
+        <v>2523.05706</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1044.60326</v>
+        <v>1255.36491</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>289.33971</v>
+        <v>361.9723499999999</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>553.6127299999999</v>
+        <v>794.5327900000001</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>2489.86931</v>
+        <v>2559.45748</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>965.72226</v>
+        <v>2449.50344</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>356.06248</v>
+        <v>589.98776</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>3521.2482</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>156.15038</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>437.88695</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>4932.78</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>144424.71106</v>
+        <v>183664.20433</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>109532.03823</v>
+        <v>177645.51277</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>179963.4432</v>
+        <v>222792.01702</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>100649.72552</v>
+        <v>120944.48888</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>313013.00406</v>
+        <v>387891.15955</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>245044.36147</v>
+        <v>323898.11424</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>438359.91733</v>
+        <v>618597.13228</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>364132.37329</v>
+        <v>526043.43481</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>443108.16286</v>
+        <v>582093.14426</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3045690.57259</v>
+        <v>3657689.33097</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1284165.92701</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1646421.68567</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2299871.705</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>157.72326</v>
+        <v>170.96787</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>113.34012</v>
+        <v>124.04292</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>213.65945</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>977.61493</v>
+        <v>769.9471100000001</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>800.14647</v>
+        <v>925.1485199999998</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>1556.83572</v>
+        <v>1778.06932</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>2647.96599</v>
+        <v>2918.97582</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>2739.25641</v>
+        <v>2947.90407</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>1573.54716</v>
+        <v>1612.73903</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>17718.59451</v>
+        <v>21953.44223</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>7038.98517</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>9340.88438</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>15307.194</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>48.29379</v>
+        <v>121.9882</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>3.57326</v>
+        <v>3.57324</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>3.41739</v>
+        <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>305.26129</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>4.05802</v>
+        <v>6.447319999999999</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>16.10969</v>
+        <v>30.87577</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>31.8883</v>
+        <v>28.20964</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0</v>
+        <v>0.00653</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>23.28919</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>13.337</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>12407.31496</v>
+        <v>21621.55228</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>12958.58665</v>
+        <v>18183.11682</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>17273.85636</v>
+        <v>18833.50862</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>13539.92056</v>
+        <v>14648.37924</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>17710.34132</v>
+        <v>28491.27887</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>17834.92833</v>
+        <v>17912.33588</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>23917.37821</v>
+        <v>23273.55491</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>31178.1361</v>
+        <v>31243.46347</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>37333.40615</v>
+        <v>36554.18596</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>57545.17715</v>
+        <v>63235.32175</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>56447.03542</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>59855.44291000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>59769.144</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>184858.10402</v>
+        <v>226805.59708</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>140225.93493</v>
+        <v>166416.16407</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>192597.57286</v>
+        <v>221023.98128</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>239232.97441</v>
+        <v>264863.55271</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>296935.41083</v>
+        <v>333416.53516</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>354501.90366</v>
+        <v>402797.6801</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>418099.41867</v>
+        <v>462487.8237000001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>456433.51143</v>
+        <v>482235.8586099999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>551979.58033</v>
+        <v>563121.9011499999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1100458.22299</v>
+        <v>1236956.88538</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1078925.71257</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1191887.52928</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1102225.255</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>172406.61611</v>
+        <v>213400.7969</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>131748.0539</v>
+        <v>152951.54281</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>179117.95407</v>
+        <v>205394.3855</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>230133.19994</v>
+        <v>249706.30777</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>278720.73346</v>
+        <v>312881.1088699999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>332731.48552</v>
+        <v>377096.5229299999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>388344.2998099999</v>
+        <v>428086.74986</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>430375.54587</v>
+        <v>445444.05082</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>514132.88911</v>
+        <v>522764.0627299999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1010042.57712</v>
+        <v>1138217.48557</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>993496.3949600001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1094100.02486</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>995712.302</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>12451.48791</v>
+        <v>13404.80018</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>8477.881029999999</v>
+        <v>13464.62126</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>13479.61879</v>
+        <v>15629.59578</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>9099.774469999998</v>
+        <v>15157.24494</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>18214.67737</v>
+        <v>20535.42629</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>21770.41814</v>
+        <v>25701.15717</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>29755.11886</v>
+        <v>34401.07384</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>26057.96556</v>
+        <v>36791.80779</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>37846.69122</v>
+        <v>40357.83842</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>90415.64587000001</v>
+        <v>98739.39981</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>85429.31761</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>97787.50441999998</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>106512.953</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>301957.37716</v>
+        <v>272657.76271</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>384263.4692000001</v>
+        <v>320387.04719</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>457225.08787</v>
+        <v>428975.69855</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>551090.78373</v>
+        <v>578943.67126</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>677040.3859199999</v>
+        <v>713350.58776</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>852114.7568999999</v>
+        <v>868436.9903399999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>975341.7643800001</v>
+        <v>999703.1975899999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>896220.85939</v>
+        <v>1002346.34322</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1250618.56956</v>
+        <v>1365255.61755</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2065173.60175</v>
+        <v>2090282.56193</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2609566.73668</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2766211.78272</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>4511221.559</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>48266.39115</v>
+        <v>58145.18042999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>69546.91699000001</v>
+        <v>127366.55269</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>95307.98517999999</v>
+        <v>97278.62006</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>65129.06678</v>
+        <v>81706.14094999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>105886.16669</v>
+        <v>91096.21313999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>133393.71902</v>
+        <v>155784.85175</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>127000.08263</v>
+        <v>135383.71712</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>191969.12353</v>
+        <v>211129.2988</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>188138.4845</v>
+        <v>205687.00282</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>251316.56892</v>
+        <v>287251.67324</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>371774.82945</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>469953.48714</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>328486.147</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>7489.190579999999</v>
+        <v>8298.737590000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1517.20884</v>
+        <v>18749.18275</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1568.34792</v>
+        <v>1561.06244</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>916.5294699999999</v>
+        <v>722.27074</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>2283.97636</v>
+        <v>3285.3473</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>3237.51717</v>
+        <v>4438.02669</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>5061.15624</v>
+        <v>6062.48959</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1356.64658</v>
+        <v>1483.43439</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>2455.542689999999</v>
+        <v>2797.95087</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>22530.37461</v>
+        <v>24378.15388</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>4811.48983</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>5987.53319</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>17461.349</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>40777.20057</v>
+        <v>49846.44284</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>68029.70815000001</v>
+        <v>108617.36994</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>93739.63725999999</v>
+        <v>95717.55762000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>64212.53730999999</v>
+        <v>80983.87020999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>103602.19033</v>
+        <v>87810.86584</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>130156.20185</v>
+        <v>151346.82506</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>121938.92639</v>
+        <v>129321.22753</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>190612.47695</v>
+        <v>209645.86441</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>185682.94181</v>
+        <v>202889.05195</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>228786.19431</v>
+        <v>262873.51936</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>366963.33962</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>463965.95395</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>311024.798</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>56577.20203</v>
+        <v>64562.46173999999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>50597.44153</v>
+        <v>60022.34222000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>367605.31598</v>
+        <v>377344.13828</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>70054.88159</v>
+        <v>73479.09757000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>93110.11205</v>
+        <v>89469.93037</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>237304.83745</v>
+        <v>270214.23888</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>95750.87066999999</v>
+        <v>104377.89708</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>298219.94063</v>
+        <v>314369.64063</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>137462.91614</v>
+        <v>142707.37249</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>393414.84173</v>
+        <v>409803.4394599999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>313793.71301</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>324361.36417</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>246000.517</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>2492.10209</v>
+        <v>4140.554529999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>3316.71404</v>
+        <v>2910.43057</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>8181.91727</v>
+        <v>7577.578209999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>9412.75354</v>
+        <v>6128.173400000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>8532.07417</v>
+        <v>6763.66754</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>10321.31641</v>
+        <v>18845.99261</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3978.90358</v>
+        <v>6482.37376</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>6579.75432</v>
+        <v>13709.90735</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>11018.02229</v>
+        <v>13760.05394</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>25953.53309</v>
+        <v>22831.23646</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>26204.63958</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>42447.59166000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>27914.94</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>7260.317410000001</v>
+        <v>8158.5735</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>7363.501719999998</v>
+        <v>8982.04509</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>4147.526400000001</v>
+        <v>4075.13743</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>6203.49569</v>
+        <v>8575.046879999998</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>4700.898139999999</v>
+        <v>6346.01717</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>18446.88766</v>
+        <v>26040.42523</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>10484.29364</v>
+        <v>10725.10858</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>4856.04099</v>
+        <v>6164.834349999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3924.11986</v>
+        <v>4841.910059999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>36460.17354</v>
+        <v>38123.66749</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>48990.75231999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>15693.65618</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>9461.540999999999</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>46824.78253</v>
+        <v>52263.33371</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>39917.22577</v>
+        <v>48129.86655999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>355275.8723099999</v>
+        <v>365691.42264</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>54438.63236</v>
+        <v>58775.87729</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>79877.13974</v>
+        <v>76360.24566</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>208536.63338</v>
+        <v>225327.82104</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>81287.67344999999</v>
+        <v>87170.41474000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>286784.14532</v>
+        <v>294494.89893</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>122520.77399</v>
+        <v>124105.40849</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>331001.1351</v>
+        <v>348848.53551</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>238598.32111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>266220.11633</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>208624.036</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>293646.56628</v>
+        <v>266240.4814</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>403212.94466</v>
+        <v>387731.2576599999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>184927.75707</v>
+        <v>148910.18033</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>546164.9689200001</v>
+        <v>587170.71464</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>689816.4405599999</v>
+        <v>714976.87053</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>748203.63847</v>
+        <v>754007.6032100001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1006590.97634</v>
+        <v>1030709.01763</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>789970.04229</v>
+        <v>899106.00139</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1301294.13792</v>
+        <v>1428235.24788</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1923075.32894</v>
+        <v>1967730.79571</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2667547.85312</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2911803.90569</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>4593707.189</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>64867.29032</v>
+        <v>66944.01643</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>74597.28809</v>
+        <v>74885.17892999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>91334.95317000001</v>
+        <v>93098.76300000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>113443.69106</v>
+        <v>115128.74658</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>139873.85514</v>
+        <v>146111.58998</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>150237.54161</v>
+        <v>156495.75488</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>185949.19803</v>
+        <v>192558.63262</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>182671.28597</v>
+        <v>195071.34076</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>223081.85498</v>
+        <v>231791.61331</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>383281.25889</v>
+        <v>404958.59773</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>454362.33686</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>482682.19833</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>737099.691</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>228779.27596</v>
+        <v>199296.46497</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>328615.65657</v>
+        <v>312846.07873</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>93592.8039</v>
+        <v>55811.41733</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>432721.27786</v>
+        <v>472041.9680599999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>549942.5854200001</v>
+        <v>568865.2805499999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>597966.09686</v>
+        <v>597511.8483299999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>820641.7783100001</v>
+        <v>838150.38501</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>607298.7563199999</v>
+        <v>704034.6606299999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1078212.28294</v>
+        <v>1196443.63457</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1539794.07005</v>
+        <v>1562772.19798</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2213185.51626</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2429121.70736</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>3856607.498</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>756</v>
+        <v>658</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>874</v>
+        <v>767</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1040</v>
+        <v>936</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1162</v>
+        <v>1025</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1088</v>
+        <v>980</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1176</v>
+        <v>1054</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1278</v>
+        <v>1116</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1388</v>
+        <v>1131</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1651</v>
+        <v>1276</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1010</v>
+        <v>942</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>937</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>